--- a/data/3_extracted_Moeltner2019_EE.pdf.xlsx
+++ b/data/3_extracted_Moeltner2019_EE.pdf.xlsx
@@ -5,22 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericasa1/Desktop/pat_metaregression/Meta-analysis (Bayesian)-2/WetlandMA/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericasa1/Desktop/datascience_projects/r_projects/WetlandMetagression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD3F376-E9F0-1044-818C-04F191A1B3AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E161868-3587-104B-9399-BBCD8E0CB191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="460" windowWidth="13860" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="460" windowWidth="13860" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tables" sheetId="1" r:id="rId1"/>
+    <sheet name="tables1 " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="68">
   <si>
     <t>Awondo et al.</t>
   </si>
@@ -148,42 +158,6 @@
     <t>Whitehead &amp; Blomquist</t>
   </si>
   <si>
-    <t>Bishop, 1999;</t>
-  </si>
-  <si>
-    <t>Loomis</t>
-  </si>
-  <si>
-    <t>et</t>
-  </si>
-  <si>
-    <t>al., 1991;</t>
-  </si>
-  <si>
-    <t>Poor, 1999;</t>
-  </si>
-  <si>
-    <t>Whitehead and</t>
-  </si>
-  <si>
-    <t>Blomquist, 1991),</t>
-  </si>
-  <si>
-    <t>1991), two</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>them target</t>
-  </si>
-  <si>
-    <t>target multi-state</t>
-  </si>
-  <si>
-    <t>regions (Eastern</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -206,13 +180,67 @@
   </si>
   <si>
     <t>WTP</t>
+  </si>
+  <si>
+    <t>He et al</t>
+  </si>
+  <si>
+    <t>Lantz et al</t>
+  </si>
+  <si>
+    <t>2013, 2009</t>
+  </si>
+  <si>
+    <t>2017, 2013</t>
+  </si>
+  <si>
+    <t>Pattisson et al</t>
+  </si>
+  <si>
+    <t>2011, 2008</t>
+  </si>
+  <si>
+    <t>Tkay</t>
+  </si>
+  <si>
+    <t>2002, 2001</t>
+  </si>
+  <si>
+    <t>Trenholm et al</t>
+  </si>
+  <si>
+    <t>2013, 2007</t>
+  </si>
+  <si>
+    <t>Southern Quebec</t>
+  </si>
+  <si>
+    <t>Greater Toronto Area</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>Southern Ontario</t>
+  </si>
+  <si>
+    <t>Southern New Brunswick</t>
+  </si>
+  <si>
+    <t>Freshwater, Forrested</t>
+  </si>
+  <si>
+    <t>Freshwater, River Watershed</t>
+  </si>
+  <si>
+    <t>Freshwater, Bog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -220,13 +248,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -241,12 +281,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,16 +603,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
@@ -581,35 +623,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>2011</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -635,7 +677,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>2004</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -661,7 +703,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2004</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -687,7 +729,7 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>2004</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -713,7 +755,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>2004</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -739,7 +781,7 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>1995</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -765,7 +807,7 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>1995</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -791,7 +833,7 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>1995</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -817,7 +859,7 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>1998</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -843,7 +885,7 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>1998</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -869,7 +911,7 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>1998</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -895,7 +937,7 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>1998</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -921,7 +963,7 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>1995</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -947,7 +989,7 @@
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>2016</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -973,7 +1015,7 @@
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>2016</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -999,7 +1041,7 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>2016</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1025,7 +1067,7 @@
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>2016</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1051,7 +1093,7 @@
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>2016</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1077,7 +1119,7 @@
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>2002</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1103,7 +1145,7 @@
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>2002</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1129,7 +1171,7 @@
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>2002</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1155,7 +1197,7 @@
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>2002</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1181,7 +1223,7 @@
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>2002</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1207,7 +1249,7 @@
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>2013</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1233,7 +1275,7 @@
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>1991</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1259,7 +1301,7 @@
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>1991</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1285,7 +1327,7 @@
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>1998</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1311,7 +1353,7 @@
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>1999</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1337,7 +1379,7 @@
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>2013</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1363,7 +1405,7 @@
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>2013</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1389,7 +1431,7 @@
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>2013</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1415,7 +1457,7 @@
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>2013</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1441,7 +1483,7 @@
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>2013</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1467,7 +1509,7 @@
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>1999</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1493,7 +1535,7 @@
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>1999</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1519,7 +1561,7 @@
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>1999</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1545,7 +1587,7 @@
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>2009</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1571,7 +1613,7 @@
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>1991</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1593,47 +1635,554 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>988422</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1976843</v>
+      </c>
+      <c r="H41" s="4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="B42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>988422</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1976843</v>
+      </c>
+      <c r="H42" s="4">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>53</v>
+      <c r="C43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="4">
+        <v>11997</v>
+      </c>
+      <c r="G43" s="4">
+        <v>14520</v>
+      </c>
+      <c r="H43" s="4">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="4">
+        <v>11997</v>
+      </c>
+      <c r="G44" s="4">
+        <v>14520</v>
+      </c>
+      <c r="H44" s="4">
+        <v>233.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="4">
+        <v>11997</v>
+      </c>
+      <c r="G45" s="4">
+        <v>14520</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="4">
+        <v>11997</v>
+      </c>
+      <c r="G46" s="4">
+        <v>15250</v>
+      </c>
+      <c r="H46" s="4">
+        <v>37.53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="4">
+        <v>11997</v>
+      </c>
+      <c r="G47" s="4">
+        <v>15250</v>
+      </c>
+      <c r="H47" s="4">
+        <v>238.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="4">
+        <v>11997</v>
+      </c>
+      <c r="G48" s="4">
+        <v>15250</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1088.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="4">
+        <v>945189</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1044702</v>
+      </c>
+      <c r="H49" s="4">
+        <v>318.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>945189</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1084782</v>
+      </c>
+      <c r="H50" s="4">
+        <v>325.36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="4">
+        <v>945189</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1125461</v>
+      </c>
+      <c r="H51" s="4">
+        <v>332.37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>945189</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1206820</v>
+      </c>
+      <c r="H52" s="4">
+        <v>346.76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="4">
+        <v>945189</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1355977</v>
+      </c>
+      <c r="H53" s="4">
+        <v>375.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="4">
+        <v>4200</v>
+      </c>
+      <c r="G54" s="4">
+        <v>8400</v>
+      </c>
+      <c r="H54" s="4">
+        <v>146.97999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="4">
+        <v>4200</v>
+      </c>
+      <c r="G55" s="4">
+        <v>8400</v>
+      </c>
+      <c r="H55" s="4">
+        <v>85.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="4">
+        <v>4200</v>
+      </c>
+      <c r="G56" s="4">
+        <v>8400</v>
+      </c>
+      <c r="H56" s="4">
+        <v>75.98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>5884</v>
+      </c>
+      <c r="H57" s="4">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>11300</v>
+      </c>
+      <c r="H58" s="4">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>7408</v>
+      </c>
+      <c r="H59" s="4">
+        <v>-525</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>14318</v>
+      </c>
+      <c r="H60" s="4">
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>